--- a/bh3/545801909949332628_2021-07-10_19-50-10.xlsx
+++ b/bh3/545801909949332628_2021-07-10_19-50-10.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4903675420</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:14:34</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44390.9267824074</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>4894988563</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:24:18</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44389.766875</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -717,10 +729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:33:13</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44389.60640046297</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -796,10 +806,8 @@
           <t>4887995823</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-11 17:56:56</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44388.74787037037</v>
       </c>
       <c r="I5" t="n">
         <v>3</v>
@@ -863,10 +871,8 @@
           <t>4882344963</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-11 14:22:18</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44388.59881944444</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -942,10 +948,8 @@
           <t>4886276318</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-11 12:54:55</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44388.53813657408</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1009,10 +1013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-11 10:44:58</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44388.44789351852</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1076,10 +1078,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:40:24</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44388.31972222222</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1174,10 +1174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-11 07:06:59</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44388.29651620371</v>
       </c>
       <c r="I10" t="n">
         <v>3</v>
@@ -1249,10 +1247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-11 01:16:21</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44388.05302083334</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1320,10 +1316,8 @@
           <t>4883856263</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:38:38</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44388.0268287037</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1391,10 +1385,8 @@
           <t>4883484849</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:36:20</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44388.02523148148</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1466,10 +1458,8 @@
           <t>4882344963</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:34:01</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44388.02362268518</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1533,10 +1523,8 @@
           <t>4882344963</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:20:00</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44388.01388888889</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1612,10 +1600,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-11 00:17:15</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44388.01197916667</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1683,10 +1669,8 @@
           <t>4882344963</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:44:21</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44387.98913194444</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1762,10 +1746,8 @@
           <t>4882344963</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:43:34</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44387.98858796297</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1841,10 +1823,8 @@
           <t>4883484849</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:39:54</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44387.98604166666</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1912,10 +1892,8 @@
           <t>4882344963</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:32:21</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44387.98079861111</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -1991,10 +1969,8 @@
           <t>4883312658</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:16:03</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44387.96947916667</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2067,10 +2043,8 @@
           <t>4882188772</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:14:12</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44387.96819444445</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2130,10 +2104,8 @@
           <t>4882188772</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:05:39</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44387.96225694445</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2205,10 +2177,8 @@
           <t>4882344963</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:04:52</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44387.96171296296</v>
       </c>
       <c r="I24" t="n">
         <v>1</v>
@@ -2272,10 +2242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:02:23</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44387.95998842592</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2335,10 +2303,8 @@
           <t>4882188772</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:02:15</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44387.95989583333</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2398,10 +2364,8 @@
           <t>4882188772</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-10 23:01:25</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44387.95931712963</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2461,10 +2425,8 @@
           <t>4882188772</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:55:36</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44387.95527777778</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2537,10 +2499,8 @@
           <t>4883148387</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:54:13</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44387.95431712963</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2608,10 +2568,8 @@
           <t>4882188772</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:46:16</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44387.9487962963</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2671,10 +2629,8 @@
           <t>4882188772</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:39:49</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44387.94431712963</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2746,10 +2702,8 @@
           <t>4882188772</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:37:54</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44387.94298611111</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2809,10 +2763,8 @@
           <t>4883027033</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:37:41</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44387.94283564815</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
@@ -2880,10 +2832,8 @@
           <t>4883026502</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:37:30</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44387.94270833334</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2955,10 +2905,8 @@
           <t>4882047789</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:24:07</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44387.93341435185</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3026,10 +2974,8 @@
           <t>4882814217</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:20:05</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44387.93061342592</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
@@ -3097,10 +3043,8 @@
           <t>4882814217</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:14:03</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44387.92642361111</v>
       </c>
       <c r="I37" t="n">
         <v>5</v>
@@ -3164,10 +3108,8 @@
           <t>4882440602</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:12:28</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44387.92532407407</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3243,10 +3185,8 @@
           <t>4882814217</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:10:59</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44387.92429398148</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3314,10 +3254,8 @@
           <t>4882295462</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:09:54</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44387.92354166666</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3393,10 +3331,8 @@
           <t>4882804308</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:09:33</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44387.92329861111</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3464,10 +3400,8 @@
           <t>4882295462</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:06:36</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44387.92125</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3543,10 +3477,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:04:36</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44387.91986111111</v>
       </c>
       <c r="I43" t="n">
         <v>1</v>
@@ -3610,10 +3542,8 @@
           <t>4882188772</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:04:15</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44387.91961805556</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3685,10 +3615,8 @@
           <t>4882188772</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-10 22:03:02</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44387.91877314815</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3757,10 +3685,8 @@
           <t>4882440602</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:58:48</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44387.91583333333</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3828,10 +3754,8 @@
           <t>4882596039</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:57:27</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44387.91489583333</v>
       </c>
       <c r="I47" t="n">
         <v>9</v>
@@ -3895,10 +3819,8 @@
           <t>4882658212</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:50:17</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44387.90991898148</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -3974,10 +3896,8 @@
           <t>4882658095</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:50:14</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44387.90988425926</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4041,10 +3961,8 @@
           <t>4882402440</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:49:11</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44387.9091550926</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4120,10 +4038,8 @@
           <t>4882589946</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:49:00</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44387.90902777778</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4187,10 +4103,8 @@
           <t>4882648912</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:49:00</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44387.90902777778</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4258,10 +4172,8 @@
           <t>4882619706</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:45:21</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44387.90649305555</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4333,10 +4245,8 @@
           <t>4882621575</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:45:11</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44387.90637731482</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4412,10 +4322,8 @@
           <t>4882557516</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:41:50</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44387.90405092593</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4483,10 +4391,8 @@
           <t>4882589946</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:41:22</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44387.90372685185</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4562,10 +4468,8 @@
           <t>4882596039</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:41:13</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44387.90362268518</v>
       </c>
       <c r="I57" t="n">
         <v>18</v>
@@ -4633,10 +4537,8 @@
           <t>4882588978</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:40:59</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44387.90346064815</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4713,10 +4615,8 @@
           <t>4882557516</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:39:47</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44387.90262731481</v>
       </c>
       <c r="I59" t="n">
         <v>2</v>
@@ -4780,10 +4680,8 @@
           <t>4882557516</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:36:16</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44387.90018518519</v>
       </c>
       <c r="I60" t="n">
         <v>2</v>
@@ -4851,10 +4749,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:29:38</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44387.8955787037</v>
       </c>
       <c r="I61" t="n">
         <v>8</v>
@@ -4926,10 +4822,8 @@
           <t>4881929058</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:28:11</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44387.89457175926</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5005,10 +4899,8 @@
           <t>4882047789</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:28:01</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44387.89445601852</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5080,10 +4972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:26:47</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44387.89359953703</v>
       </c>
       <c r="I64" t="n">
         <v>2</v>
@@ -5155,10 +5045,8 @@
           <t>4882440602</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:25:58</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44387.89303240741</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5226,10 +5114,8 @@
           <t>4882440602</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:20:11</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44387.88901620371</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5293,10 +5179,8 @@
           <t>4882437806</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:20:04</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44387.88893518518</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5360,10 +5244,8 @@
           <t>4882047789</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:19:33</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44387.88857638889</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5431,10 +5313,8 @@
           <t>4882217878</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:17:17</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44387.88700231481</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5502,10 +5382,8 @@
           <t>4882300823</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:17:16</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44387.88699074074</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5581,10 +5459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:43</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44387.88591435185</v>
       </c>
       <c r="I71" t="n">
         <v>50</v>
@@ -5660,10 +5536,8 @@
           <t>4882402440</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:38</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44387.88585648148</v>
       </c>
       <c r="I72" t="n">
         <v>17</v>
@@ -5727,10 +5601,8 @@
           <t>4882295462</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:31</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44387.88577546296</v>
       </c>
       <c r="I73" t="n">
         <v>4</v>
@@ -5794,10 +5666,8 @@
           <t>4882406090</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:15:14</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44387.8855787037</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5861,10 +5731,8 @@
           <t>4882381716</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:13:12</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44387.88416666666</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5928,10 +5796,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:12:51</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44387.88392361111</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6007,10 +5873,8 @@
           <t>4882379328</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:12:31</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44387.88369212963</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6074,10 +5938,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:10:12</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44387.88208333333</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6141,10 +6003,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:09:22</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44387.88150462963</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6208,10 +6068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:53</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44387.88116898148</v>
       </c>
       <c r="I80" t="n">
         <v>2</v>
@@ -6283,10 +6141,8 @@
           <t>4882344963</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:46</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44387.88108796296</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6362,10 +6218,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:34</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44387.88094907408</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6435,10 +6289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:08:02</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44387.88057870371</v>
       </c>
       <c r="I83" t="n">
         <v>110</v>
@@ -6502,10 +6354,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:07:19</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44387.88008101852</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6569,10 +6419,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:25</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44387.87945601852</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6648,10 +6496,8 @@
           <t>4882047789</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:22</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44387.8794212963</v>
       </c>
       <c r="I86" t="n">
         <v>5</v>
@@ -6727,10 +6573,8 @@
           <t>4882328573</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:06:11</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44387.87929398148</v>
       </c>
       <c r="I87" t="n">
         <v>4</v>
@@ -6806,10 +6650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:58</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44387.87844907407</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6877,10 +6719,8 @@
           <t>4882300823</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:38</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44387.8782175926</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -6956,10 +6796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:21</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44387.87802083333</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7035,10 +6873,8 @@
           <t>4882320267</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:09</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44387.87788194444</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7111,10 +6947,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:04:03</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44387.8778125</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7178,10 +7012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:56</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44387.87773148148</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7245,10 +7077,8 @@
           <t>4882312085</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:03:35</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44387.87748842593</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7324,10 +7154,8 @@
           <t>4882300823</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:40</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44387.87615740741</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7391,10 +7219,8 @@
           <t>4882300063</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:01:23</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44387.87596064815</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7466,10 +7292,8 @@
           <t>4882295462</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:57</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44387.87565972222</v>
       </c>
       <c r="I97" t="n">
         <v>7</v>
@@ -7545,10 +7369,8 @@
           <t>4882047789</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:53</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44387.87561342592</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7620,10 +7442,8 @@
           <t>4882287179</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:18</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44387.87520833333</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7695,10 +7515,8 @@
           <t>4882286883</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-10 21:00:10</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44387.87511574074</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7770,10 +7588,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:40</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44387.87476851852</v>
       </c>
       <c r="I101" t="n">
         <v>8</v>
@@ -7841,10 +7657,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:38</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44387.87474537037</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7920,10 +7734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:59:29</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44387.87464120371</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7991,10 +7803,8 @@
           <t>4882255938</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:55:51</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44387.87211805556</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8058,10 +7868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:53:40</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44387.87060185185</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8137,10 +7945,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:51:51</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44387.86934027778</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8208,10 +8014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:51:42</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44387.86923611111</v>
       </c>
       <c r="I107" t="n">
         <v>81</v>
@@ -8287,10 +8091,8 @@
           <t>4882217878</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:51:07</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44387.86883101852</v>
       </c>
       <c r="I108" t="n">
         <v>5</v>
@@ -8354,10 +8156,8 @@
           <t>4882225016</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:51:03</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44387.86878472222</v>
       </c>
       <c r="I109" t="n">
         <v>15</v>
@@ -8417,10 +8217,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:51:03</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44387.86878472222</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8496,10 +8294,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:50:24</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44387.86833333333</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8563,10 +8359,8 @@
           <t>4882047789</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:50:23</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44387.86832175926</v>
       </c>
       <c r="I112" t="n">
         <v>6</v>
@@ -8638,10 +8432,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:50:04</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44387.86810185185</v>
       </c>
       <c r="I113" t="n">
         <v>2</v>
@@ -8705,10 +8497,8 @@
           <t>4882212004</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:49:47</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44387.86790509259</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8784,10 +8574,8 @@
           <t>4882210142</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:48:57</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44387.86732638889</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8855,10 +8643,8 @@
           <t>4882093409</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:48:27</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44387.86697916667</v>
       </c>
       <c r="I116" t="n">
         <v>2</v>
@@ -8936,10 +8722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:48:16</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44387.86685185185</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9008,10 +8792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:48:10</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44387.86678240741</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9079,10 +8861,8 @@
           <t>4882188772</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:47:38</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44387.86641203704</v>
       </c>
       <c r="I119" t="n">
         <v>1</v>
@@ -9154,10 +8934,8 @@
           <t>4882196674</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:47:24</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44387.86625</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9225,10 +9003,8 @@
           <t>4882093409</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:46:01</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44387.86528935185</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9292,10 +9068,8 @@
           <t>4882177097</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:45:09</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44387.8646875</v>
       </c>
       <c r="I122" t="n">
         <v>1</v>
@@ -9363,10 +9137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:45:06</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44387.86465277777</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9442,10 +9214,8 @@
           <t>4882180983</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:44:58</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44387.86456018518</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -9517,10 +9287,8 @@
           <t>4882171622</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:44:58</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44387.86456018518</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9589,10 +9357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:43:13</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44387.8633449074</v>
       </c>
       <c r="I126" t="n">
         <v>4</v>
@@ -9668,10 +9434,8 @@
           <t>4882147769</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:43:06</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44387.86326388889</v>
       </c>
       <c r="I127" t="n">
         <v>5</v>
@@ -9735,10 +9499,8 @@
           <t>4882154306</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:42:23</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44387.8627662037</v>
       </c>
       <c r="I128" t="n">
         <v>1</v>
@@ -9806,10 +9568,8 @@
           <t>4882147769</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:41:32</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44387.86217592593</v>
       </c>
       <c r="I129" t="n">
         <v>6</v>
@@ -9881,10 +9641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:41:31</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44387.86216435185</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9962,10 +9720,8 @@
           <t>4882141807</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:41:05</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44387.86186342593</v>
       </c>
       <c r="I131" t="n">
         <v>6</v>
@@ -10033,10 +9789,8 @@
           <t>4882093409</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:40:39</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44387.8615625</v>
       </c>
       <c r="I132" t="n">
         <v>3</v>
@@ -10114,10 +9868,8 @@
           <t>4882128766</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:39:49</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44387.86098379629</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10193,10 +9945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:39:21</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44387.86065972222</v>
       </c>
       <c r="I134" t="n">
         <v>6</v>
@@ -10264,10 +10014,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:39:10</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44387.86053240741</v>
       </c>
       <c r="I135" t="n">
         <v>13</v>
@@ -10335,10 +10083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:39:10</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44387.86053240741</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10410,10 +10156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:37:36</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44387.85944444445</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10489,10 +10233,8 @@
           <t>4882120309</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:37:07</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44387.8591087963</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10560,10 +10302,8 @@
           <t>4882047789</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:36:34</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44387.85872685185</v>
       </c>
       <c r="I139" t="n">
         <v>5</v>
@@ -10623,10 +10363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:36:21</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44387.85857638889</v>
       </c>
       <c r="I140" t="n">
         <v>21</v>
@@ -10694,10 +10432,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:35:37</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44387.85806712963</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10761,10 +10497,8 @@
           <t>4882094062</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:34:47</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44387.85748842593</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10836,10 +10570,8 @@
           <t>4882093409</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:34:32</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44387.85731481481</v>
       </c>
       <c r="I143" t="n">
         <v>19</v>
@@ -10903,10 +10635,8 @@
           <t>4881827197</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:32:52</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44387.8561574074</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10974,10 +10704,8 @@
           <t>4882077509</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:32:21</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44387.85579861111</v>
       </c>
       <c r="I145" t="n">
         <v>7</v>
@@ -11053,10 +10781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:32:02</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44387.8555787037</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11132,10 +10858,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:30:29</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44387.85450231482</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -11211,10 +10935,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:30:15</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44387.85434027778</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11278,10 +11000,8 @@
           <t>4882019032</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:28:35</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44387.85318287037</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11354,10 +11074,8 @@
           <t>4882047789</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:28:10</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44387.85289351852</v>
       </c>
       <c r="I150" t="n">
         <v>7</v>
@@ -11425,10 +11143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:26:26</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44387.85168981482</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11492,10 +11208,8 @@
           <t>4882024582</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:24:38</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44387.85043981481</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11571,10 +11285,8 @@
           <t>4882024128</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:24:26</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44387.85030092593</v>
       </c>
       <c r="I153" t="n">
         <v>3</v>
@@ -11642,10 +11354,8 @@
           <t>4882019032</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:23:57</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44387.84996527778</v>
       </c>
       <c r="I154" t="n">
         <v>1</v>
@@ -11709,10 +11419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:23:52</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44387.84990740741</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11784,10 +11492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:23:17</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44387.84950231481</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11851,10 +11557,8 @@
           <t>4882025094</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:23:01</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44387.84931712963</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11918,10 +11622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:22:45</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44387.84913194444</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11989,10 +11691,8 @@
           <t>4881899061</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:22:22</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44387.84886574074</v>
       </c>
       <c r="I159" t="n">
         <v>3</v>
@@ -12060,10 +11760,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:22:09</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44387.84871527777</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12127,10 +11825,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:21:47</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44387.84846064815</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12194,10 +11890,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:20:57</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44387.84788194444</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12261,10 +11955,8 @@
           <t>4882005406</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:20:39</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44387.84767361111</v>
       </c>
       <c r="I163" t="n">
         <v>7</v>
@@ -12332,10 +12024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:20:07</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44387.84730324074</v>
       </c>
       <c r="I164" t="n">
         <v>6</v>
@@ -12407,10 +12097,8 @@
           <t>4882000423</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:19:48</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44387.84708333333</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12478,10 +12166,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:19:25</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44387.84681712963</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12545,10 +12231,8 @@
           <t>4881988517</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:18:54</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44387.84645833333</v>
       </c>
       <c r="I167" t="n">
         <v>3</v>
@@ -12616,10 +12300,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:18:40</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44387.84629629629</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12683,10 +12365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:18:07</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44387.84591435185</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12759,10 +12439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:17:40</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44387.84560185186</v>
       </c>
       <c r="I170" t="n">
         <v>4</v>
@@ -12822,10 +12500,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:17:20</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44387.84537037037</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12889,10 +12565,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:16:08</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44387.84453703704</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -12956,10 +12630,8 @@
           <t>4881863651</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:15:47</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44387.84429398148</v>
       </c>
       <c r="I173" t="n">
         <v>1</v>
@@ -13031,10 +12703,8 @@
           <t>4881943851</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:15:40</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44387.84421296296</v>
       </c>
       <c r="I174" t="n">
         <v>1</v>
@@ -13106,10 +12776,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:15:35</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44387.84415509259</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13173,10 +12841,8 @@
           <t>4881971317</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:15:27</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44387.8440625</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13240,10 +12906,8 @@
           <t>4881968310</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:15:25</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44387.84403935185</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13315,10 +12979,8 @@
           <t>4881966165</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:14:28</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44387.84337962963</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13382,10 +13044,8 @@
           <t>4881803865</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:14:17</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44387.84325231481</v>
       </c>
       <c r="I179" t="n">
         <v>2</v>
@@ -13449,10 +13109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:14:16</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44387.84324074074</v>
       </c>
       <c r="I180" t="n">
         <v>339</v>
@@ -13520,10 +13178,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:14:16</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44387.84324074074</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13587,10 +13243,8 @@
           <t>4881943851</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:11:52</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44387.84157407407</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13654,10 +13308,8 @@
           <t>4881827197</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:11:39</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44387.84142361111</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13729,10 +13381,8 @@
           <t>4881933685</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:10:45</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44387.84079861111</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13804,10 +13454,8 @@
           <t>4881940566</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:10:17</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44387.84047453704</v>
       </c>
       <c r="I185" t="n">
         <v>3</v>
@@ -13879,10 +13527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:10:13</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44387.84042824074</v>
       </c>
       <c r="I186" t="n">
         <v>23</v>
@@ -13954,10 +13600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:10:02</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44387.84030092593</v>
       </c>
       <c r="I187" t="n">
         <v>3</v>
@@ -14025,10 +13669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:09:46</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44387.84011574074</v>
       </c>
       <c r="I188" t="n">
         <v>62</v>
@@ -14100,10 +13742,8 @@
           <t>4881929058</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:09:34</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44387.83997685185</v>
       </c>
       <c r="I189" t="n">
         <v>2</v>
@@ -14175,10 +13815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:09:10</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44387.83969907407</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14246,10 +13884,8 @@
           <t>4881869090</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:08:56</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44387.83953703703</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14325,10 +13961,8 @@
           <t>4881899061</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:08:28</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44387.83921296296</v>
       </c>
       <c r="I192" t="n">
         <v>2</v>
@@ -14404,10 +14038,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:08:25</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44387.83917824074</v>
       </c>
       <c r="I193" t="n">
         <v>2</v>
@@ -14475,10 +14107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:08:04</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44387.83893518519</v>
       </c>
       <c r="I194" t="n">
         <v>12</v>
@@ -14542,10 +14172,8 @@
           <t>4881912128</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:08:04</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44387.83893518519</v>
       </c>
       <c r="I195" t="n">
         <v>2</v>
@@ -14621,10 +14249,8 @@
           <t>4881917068</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:07:43</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44387.83869212963</v>
       </c>
       <c r="I196" t="n">
         <v>3</v>
@@ -14688,10 +14314,8 @@
           <t>4881925244</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:07:43</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44387.83869212963</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14767,10 +14391,8 @@
           <t>4881925088</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:07:39</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44387.83864583333</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14846,10 +14468,8 @@
           <t>4881925023</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:07:37</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44387.83862268519</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14921,10 +14541,8 @@
           <t>4881904827</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:07:24</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44387.83847222223</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14996,10 +14614,8 @@
           <t>4881899061</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:07:07</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44387.83827546296</v>
       </c>
       <c r="I201" t="n">
         <v>3</v>
@@ -15063,10 +14679,8 @@
           <t>4881913669</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:06:58</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44387.83817129629</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15142,10 +14756,8 @@
           <t>4881908112</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:06:42</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44387.83798611111</v>
       </c>
       <c r="I203" t="n">
         <v>3</v>
@@ -15221,10 +14833,8 @@
           <t>4881904827</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:06:41</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44387.83797453704</v>
       </c>
       <c r="I204" t="n">
         <v>1</v>
@@ -15296,10 +14906,8 @@
           <t>4881912128</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:06:18</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44387.83770833333</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15371,10 +14979,8 @@
           <t>4881911789</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:06:10</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44387.83761574074</v>
       </c>
       <c r="I206" t="n">
         <v>4</v>
@@ -15450,10 +15056,8 @@
           <t>4881902632</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:05:41</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44387.83728009259</v>
       </c>
       <c r="I207" t="n">
         <v>2</v>
@@ -15529,10 +15133,8 @@
           <t>4881899061</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:05:02</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44387.8368287037</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15608,10 +15210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:04:31</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44387.83646990741</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15683,10 +15283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:04:25</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44387.83640046296</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15750,10 +15348,8 @@
           <t>4881827197</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:03:56</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44387.83606481482</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15821,10 +15417,8 @@
           <t>4881863651</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:03:17</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44387.83561342592</v>
       </c>
       <c r="I212" t="n">
         <v>20</v>
@@ -15892,10 +15486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:02:43</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44387.83521990741</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15955,10 +15547,8 @@
           <t>4881885081</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:02:25</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44387.83501157408</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16022,10 +15612,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:01:48</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44387.83458333334</v>
       </c>
       <c r="I215" t="n">
         <v>17</v>
@@ -16097,10 +15685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:01:47</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44387.83457175926</v>
       </c>
       <c r="I216" t="n">
         <v>9</v>
@@ -16176,10 +15762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:01:23</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44387.83429398148</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16243,10 +15827,8 @@
           <t>4881869090</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:01:11</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44387.83415509259</v>
       </c>
       <c r="I218" t="n">
         <v>11</v>
@@ -16322,10 +15904,8 @@
           <t>4881827197</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:00:56</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44387.83398148148</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16401,10 +15981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:00:35</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44387.83373842593</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16476,10 +16054,8 @@
           <t>4881843936</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:00:28</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44387.83365740741</v>
       </c>
       <c r="I221" t="n">
         <v>2</v>
@@ -16555,10 +16131,8 @@
           <t>4881863651</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-10 20:00:14</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44387.83349537037</v>
       </c>
       <c r="I222" t="n">
         <v>105</v>
@@ -16630,10 +16204,8 @@
           <t>4881852680</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:58:37</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44387.83237268519</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16709,10 +16281,8 @@
           <t>4881856032</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:58:34</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44387.83233796297</v>
       </c>
       <c r="I224" t="n">
         <v>2</v>
@@ -16780,10 +16350,8 @@
           <t>4881852317</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:58:27</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44387.83225694444</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -16855,10 +16423,8 @@
           <t>4881827197</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:58:10</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44387.83206018519</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16922,10 +16488,8 @@
           <t>4881851488</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:58:06</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44387.83201388889</v>
       </c>
       <c r="I227" t="n">
         <v>6</v>
@@ -16997,10 +16561,8 @@
           <t>4881848571</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:57:53</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44387.83186342593</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17064,10 +16626,8 @@
           <t>4881843936</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:57:39</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44387.83170138889</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17135,10 +16695,8 @@
           <t>4881843621</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:57:31</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44387.8316087963</v>
       </c>
       <c r="I230" t="n">
         <v>13</v>
@@ -17203,10 +16761,8 @@
           <t>4881803865</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:57:07</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44387.83133101852</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17282,10 +16838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:56:39</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44387.83100694444</v>
       </c>
       <c r="I232" t="n">
         <v>353</v>
@@ -17361,10 +16915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:56:36</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44387.83097222223</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17432,10 +16984,8 @@
           <t>4881827197</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:56:28</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44387.83087962963</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17511,10 +17061,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:56:23</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44387.83082175926</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17582,10 +17130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:56:06</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44387.830625</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17653,10 +17199,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:55:59</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44387.83054398148</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -17724,10 +17268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:55:59</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44387.83054398148</v>
       </c>
       <c r="I238" t="n">
         <v>4</v>
@@ -17799,10 +17341,8 @@
           <t>4881827197</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:55:40</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44387.83032407407</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17866,10 +17406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:55:37</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44387.83028935185</v>
       </c>
       <c r="I240" t="n">
         <v>19</v>
@@ -17929,10 +17467,8 @@
           <t>4881827197</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:55:34</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44387.83025462963</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18008,10 +17544,8 @@
           <t>4881827197</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:55:10</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44387.82997685186</v>
       </c>
       <c r="I242" t="n">
         <v>2</v>
@@ -18071,10 +17605,8 @@
           <t>4881831847</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:54:56</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44387.82981481482</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18148,10 +17680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:54:51</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44387.82975694445</v>
       </c>
       <c r="I244" t="n">
         <v>103</v>
@@ -18219,10 +17749,8 @@
           <t>4881827197</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:54:49</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44387.82973379629</v>
       </c>
       <c r="I245" t="n">
         <v>6</v>
@@ -18298,10 +17826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:54:13</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44387.82931712963</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18369,10 +17895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:54:02</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44387.82918981482</v>
       </c>
       <c r="I247" t="n">
         <v>11</v>
@@ -18448,10 +17972,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:53:31</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44387.82883101852</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18515,10 +18037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:53:29</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44387.82880787037</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18586,10 +18106,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:53:14</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44387.82863425926</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18653,10 +18171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:53:10</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44387.82858796296</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18724,10 +18240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:53:09</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44387.82857638889</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18799,10 +18313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:53:08</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44387.82856481482</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18878,10 +18390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:53:00</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44387.82847222222</v>
       </c>
       <c r="I254" t="n">
         <v>4</v>
@@ -18957,10 +18467,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:52:58</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44387.82844907408</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19028,10 +18536,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:52:45</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44387.82829861111</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19099,10 +18605,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:52:25</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44387.82806712963</v>
       </c>
       <c r="I257" t="n">
         <v>6</v>
@@ -19170,10 +18674,8 @@
           <t>4881815699</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:52:18</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44387.82798611111</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19237,10 +18739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:52:15</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44387.82795138889</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19312,10 +18812,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:52:14</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44387.82793981482</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19391,10 +18889,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:58</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44387.82775462963</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19466,10 +18962,8 @@
           <t>4881804897</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:58</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44387.82775462963</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19545,10 +19039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:54</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44387.82770833333</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19616,10 +19108,8 @@
           <t>4881804514</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:49</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44387.82765046296</v>
       </c>
       <c r="I264" t="n">
         <v>2</v>
@@ -19679,10 +19169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:48</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44387.82763888889</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19754,10 +19242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:40</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44387.8275462963</v>
       </c>
       <c r="I266" t="n">
         <v>4</v>
@@ -19833,10 +19319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:38</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44387.82752314815</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19912,10 +19396,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:34</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44387.82747685185</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19983,10 +19465,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:34</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44387.82747685185</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20058,10 +19538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:34</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44387.82747685185</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20133,10 +19611,8 @@
           <t>4881803865</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:32</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44387.82745370371</v>
       </c>
       <c r="I271" t="n">
         <v>6</v>
@@ -20200,10 +19676,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:30</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44387.82743055555</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20271,10 +19745,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:26</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44387.82738425926</v>
       </c>
       <c r="I273" t="n">
         <v>5</v>
@@ -20350,10 +19822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:24</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44387.82736111111</v>
       </c>
       <c r="I274" t="n">
         <v>2</v>
@@ -20421,10 +19891,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:22</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44387.82733796296</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20500,10 +19968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:19</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44387.82730324074</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20567,10 +20033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:18</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44387.82729166667</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20643,10 +20107,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:17</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44387.82728009259</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -20714,10 +20176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:51:07</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44387.82716435185</v>
       </c>
       <c r="I279" t="n">
         <v>63</v>
@@ -20785,10 +20245,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:56</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44387.82703703704</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20865,10 +20323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:51</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44387.82697916667</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20932,10 +20388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:49</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44387.82695601852</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21003,10 +20457,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:48</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44387.82694444444</v>
       </c>
       <c r="I283" t="n">
         <v>19</v>
@@ -21082,10 +20534,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:44</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44387.82689814815</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21149,10 +20599,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:44</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44387.82689814815</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21220,10 +20668,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:41</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44387.82686342593</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21291,10 +20737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:37</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44387.82681712963</v>
       </c>
       <c r="I287" t="n">
         <v>347</v>
@@ -21366,10 +20810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:36</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44387.82680555555</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21445,10 +20887,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:36</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44387.82680555555</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21516,10 +20956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:34</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44387.82678240741</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21595,10 +21033,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:34</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44387.82678240741</v>
       </c>
       <c r="I291" t="n">
         <v>23</v>
@@ -21662,10 +21098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:32</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44387.82675925926</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21741,10 +21175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-10 19:50:31</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44387.82674768518</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
